--- a/data_training_uas.xlsx
+++ b/data_training_uas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perkuliahan\Semester 6\Data Mining II\Ujian Akhir Semester_Data Mining II\UAS-DATA_MINING-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1143FB9-4FD3-4794-BDD2-9C0796309621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9071AEA8-AB84-4543-85FA-A3F0A03773AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F3918C91-F2A9-448E-845D-CDE58C682A47}"/>
   </bookViews>
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADCBE34-4A44-42F4-B4A8-3B7AF46497DA}">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="L216" sqref="L216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1750,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="4">
-        <f>IF(D2="POSITIF",1,-1)</f>
+        <f t="shared" ref="E2:E65" si="0">IF(D2="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="4">
-        <f>IF(D3="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4">
-        <f>IF(D4="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="4">
-        <f>IF(D5="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4">
-        <f>IF(D6="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="4">
-        <f>IF(D7="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="4">
-        <f>IF(D8="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="4">
-        <f>IF(D9="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="4">
-        <f>IF(D10="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="4">
-        <f>IF(D11="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="4">
-        <f>IF(D12="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="4">
-        <f>IF(D13="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="4">
-        <f>IF(D14="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="4">
-        <f>IF(D15="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="4">
-        <f>IF(D16="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="4">
-        <f>IF(D17="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="4">
-        <f>IF(D18="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="4">
-        <f>IF(D19="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="4">
-        <f>IF(D20="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="4">
-        <f>IF(D21="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="4">
-        <f>IF(D22="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="4">
-        <f>IF(D23="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="4">
-        <f>IF(D24="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="4">
-        <f>IF(D25="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="4">
-        <f>IF(D26="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="4">
-        <f>IF(D27="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="4">
-        <f>IF(D28="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="4">
-        <f>IF(D29="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="4">
-        <f>IF(D30="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="4">
-        <f>IF(D31="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="4">
-        <f>IF(D32="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="4">
-        <f>IF(D33="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="4">
-        <f>IF(D34="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="4">
-        <f>IF(D35="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="4">
-        <f>IF(D36="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="4">
-        <f>IF(D37="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="4">
-        <f>IF(D38="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="4">
-        <f>IF(D39="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="4">
-        <f>IF(D40="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="4">
-        <f>IF(D41="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="E42" s="4">
-        <f>IF(D42="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="4">
-        <f>IF(D43="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="4">
-        <f>IF(D44="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="4">
-        <f>IF(D45="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="4">
-        <f>IF(D46="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="4">
-        <f>IF(D47="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="4">
-        <f>IF(D48="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="4">
-        <f>IF(D49="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="4">
-        <f>IF(D50="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="4">
-        <f>IF(D51="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
         <v>6</v>
       </c>
       <c r="E52" s="4">
-        <f>IF(D52="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="4">
-        <f>IF(D53="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
         <v>6</v>
       </c>
       <c r="E54" s="4">
-        <f>IF(D54="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="4">
-        <f>IF(D55="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="4">
-        <f>IF(D56="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
         <v>6</v>
       </c>
       <c r="E57" s="4">
-        <f>IF(D57="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
         <v>6</v>
       </c>
       <c r="E58" s="4">
-        <f>IF(D58="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="4">
-        <f>IF(D59="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="E60" s="4">
-        <f>IF(D60="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="4">
-        <f>IF(D61="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="E62" s="4">
-        <f>IF(D62="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="4">
-        <f>IF(D63="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="4">
-        <f>IF(D64="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="4">
-        <f>IF(D65="POSITIF",1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>6</v>
       </c>
       <c r="E66" s="4">
-        <f>IF(D66="POSITIF",1,-1)</f>
+        <f t="shared" ref="E66:E129" si="1">IF(D66="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="E67" s="4">
-        <f>IF(D67="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="4">
-        <f>IF(D68="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="4">
-        <f>IF(D69="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="4">
-        <f>IF(D70="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="4">
-        <f>IF(D71="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="E72" s="4">
-        <f>IF(D72="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="4">
-        <f>IF(D73="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="E74" s="4">
-        <f>IF(D74="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
         <v>6</v>
       </c>
       <c r="E75" s="4">
-        <f>IF(D75="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="4">
-        <f>IF(D76="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="4">
-        <f>IF(D77="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="4">
-        <f>IF(D78="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
         <v>6</v>
       </c>
       <c r="E79" s="4">
-        <f>IF(D79="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="4">
-        <f>IF(D80="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3172,11 +3172,11 @@
         <v>6</v>
       </c>
       <c r="E81" s="4">
-        <f>IF(D81="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="4">
-        <f>IF(D82="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="E83" s="4">
-        <f>IF(D83="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
         <v>6</v>
       </c>
       <c r="E84" s="4">
-        <f>IF(D84="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="4">
-        <f>IF(D85="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -3262,13 +3262,13 @@
         <v>6</v>
       </c>
       <c r="E86" s="4">
-        <f>IF(D86="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>174</v>
@@ -3280,13 +3280,13 @@
         <v>6</v>
       </c>
       <c r="E87" s="4">
-        <f>IF(D87="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>176</v>
@@ -3298,13 +3298,13 @@
         <v>6</v>
       </c>
       <c r="E88" s="4">
-        <f>IF(D88="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>178</v>
@@ -3316,13 +3316,13 @@
         <v>6</v>
       </c>
       <c r="E89" s="4">
-        <f>IF(D89="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>178</v>
@@ -3334,13 +3334,13 @@
         <v>6</v>
       </c>
       <c r="E90" s="4">
-        <f>IF(D90="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>181</v>
@@ -3352,13 +3352,13 @@
         <v>6</v>
       </c>
       <c r="E91" s="4">
-        <f>IF(D91="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>183</v>
@@ -3370,13 +3370,13 @@
         <v>6</v>
       </c>
       <c r="E92" s="4">
-        <f>IF(D92="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>185</v>
@@ -3388,13 +3388,13 @@
         <v>6</v>
       </c>
       <c r="E93" s="4">
-        <f>IF(D93="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>187</v>
@@ -3406,13 +3406,13 @@
         <v>6</v>
       </c>
       <c r="E94" s="4">
-        <f>IF(D94="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>189</v>
@@ -3424,13 +3424,13 @@
         <v>6</v>
       </c>
       <c r="E95" s="4">
-        <f>IF(D95="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>191</v>
@@ -3442,13 +3442,13 @@
         <v>6</v>
       </c>
       <c r="E96" s="4">
-        <f>IF(D96="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>193</v>
@@ -3460,13 +3460,13 @@
         <v>6</v>
       </c>
       <c r="E97" s="4">
-        <f>IF(D97="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>195</v>
@@ -3478,13 +3478,13 @@
         <v>6</v>
       </c>
       <c r="E98" s="4">
-        <f>IF(D98="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>197</v>
@@ -3496,13 +3496,13 @@
         <v>6</v>
       </c>
       <c r="E99" s="4">
-        <f>IF(D99="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>199</v>
@@ -3514,13 +3514,13 @@
         <v>6</v>
       </c>
       <c r="E100" s="4">
-        <f>IF(D100="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>201</v>
@@ -3532,13 +3532,13 @@
         <v>6</v>
       </c>
       <c r="E101" s="4">
-        <f>IF(D101="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>203</v>
@@ -3550,13 +3550,13 @@
         <v>6</v>
       </c>
       <c r="E102" s="4">
-        <f>IF(D102="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>205</v>
@@ -3568,13 +3568,13 @@
         <v>6</v>
       </c>
       <c r="E103" s="4">
-        <f>IF(D103="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>207</v>
@@ -3586,13 +3586,13 @@
         <v>6</v>
       </c>
       <c r="E104" s="4">
-        <f>IF(D104="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>282</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>209</v>
@@ -3604,13 +3604,13 @@
         <v>6</v>
       </c>
       <c r="E105" s="4">
-        <f>IF(D105="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>211</v>
@@ -3622,13 +3622,13 @@
         <v>6</v>
       </c>
       <c r="E106" s="4">
-        <f>IF(D106="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>213</v>
@@ -3640,13 +3640,13 @@
         <v>6</v>
       </c>
       <c r="E107" s="4">
-        <f>IF(D107="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>213</v>
@@ -3658,13 +3658,13 @@
         <v>6</v>
       </c>
       <c r="E108" s="4">
-        <f>IF(D108="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>216</v>
@@ -3676,13 +3676,13 @@
         <v>6</v>
       </c>
       <c r="E109" s="4">
-        <f>IF(D109="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>218</v>
@@ -3694,13 +3694,13 @@
         <v>220</v>
       </c>
       <c r="E110" s="4">
-        <f>IF(D110="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>221</v>
@@ -3712,13 +3712,13 @@
         <v>220</v>
       </c>
       <c r="E111" s="4">
-        <f>IF(D111="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>13</v>
@@ -3730,13 +3730,13 @@
         <v>220</v>
       </c>
       <c r="E112" s="4">
-        <f>IF(D112="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>13</v>
@@ -3748,13 +3748,13 @@
         <v>220</v>
       </c>
       <c r="E113" s="4">
-        <f>IF(D113="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>225</v>
@@ -3766,13 +3766,13 @@
         <v>220</v>
       </c>
       <c r="E114" s="4">
-        <f>IF(D114="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>227</v>
@@ -3784,13 +3784,13 @@
         <v>220</v>
       </c>
       <c r="E115" s="4">
-        <f>IF(D115="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>229</v>
@@ -3802,13 +3802,13 @@
         <v>220</v>
       </c>
       <c r="E116" s="4">
-        <f>IF(D116="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>231</v>
@@ -3820,13 +3820,13 @@
         <v>220</v>
       </c>
       <c r="E117" s="4">
-        <f>IF(D117="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>9</v>
@@ -3838,13 +3838,13 @@
         <v>220</v>
       </c>
       <c r="E118" s="4">
-        <f>IF(D118="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>234</v>
@@ -3856,13 +3856,13 @@
         <v>220</v>
       </c>
       <c r="E119" s="4">
-        <f>IF(D119="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>236</v>
@@ -3874,13 +3874,13 @@
         <v>220</v>
       </c>
       <c r="E120" s="4">
-        <f>IF(D120="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>238</v>
@@ -3892,13 +3892,13 @@
         <v>220</v>
       </c>
       <c r="E121" s="4">
-        <f>IF(D121="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>240</v>
@@ -3910,13 +3910,13 @@
         <v>220</v>
       </c>
       <c r="E122" s="4">
-        <f>IF(D122="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>242</v>
@@ -3928,13 +3928,13 @@
         <v>220</v>
       </c>
       <c r="E123" s="4">
-        <f>IF(D123="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>244</v>
@@ -3946,13 +3946,13 @@
         <v>220</v>
       </c>
       <c r="E124" s="4">
-        <f>IF(D124="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>246</v>
@@ -3964,13 +3964,13 @@
         <v>220</v>
       </c>
       <c r="E125" s="4">
-        <f>IF(D125="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>248</v>
@@ -3982,13 +3982,13 @@
         <v>220</v>
       </c>
       <c r="E126" s="4">
-        <f>IF(D126="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>250</v>
@@ -4000,13 +4000,13 @@
         <v>220</v>
       </c>
       <c r="E127" s="4">
-        <f>IF(D127="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>252</v>
@@ -4018,13 +4018,13 @@
         <v>220</v>
       </c>
       <c r="E128" s="4">
-        <f>IF(D128="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>254</v>
@@ -4036,13 +4036,13 @@
         <v>220</v>
       </c>
       <c r="E129" s="4">
-        <f>IF(D129="POSITIF",1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>256</v>
@@ -4054,13 +4054,13 @@
         <v>220</v>
       </c>
       <c r="E130" s="4">
-        <f>IF(D130="POSITIF",1,-1)</f>
+        <f t="shared" ref="E130:E193" si="2">IF(D130="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>258</v>
@@ -4072,13 +4072,13 @@
         <v>220</v>
       </c>
       <c r="E131" s="4">
-        <f>IF(D131="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>260</v>
@@ -4090,13 +4090,13 @@
         <v>220</v>
       </c>
       <c r="E132" s="4">
-        <f>IF(D132="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>262</v>
@@ -4108,13 +4108,13 @@
         <v>220</v>
       </c>
       <c r="E133" s="4">
-        <f>IF(D133="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>264</v>
@@ -4126,13 +4126,13 @@
         <v>220</v>
       </c>
       <c r="E134" s="4">
-        <f>IF(D134="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>266</v>
@@ -4144,13 +4144,13 @@
         <v>220</v>
       </c>
       <c r="E135" s="4">
-        <f>IF(D135="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>268</v>
@@ -4162,13 +4162,13 @@
         <v>220</v>
       </c>
       <c r="E136" s="4">
-        <f>IF(D136="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>266</v>
@@ -4180,13 +4180,13 @@
         <v>220</v>
       </c>
       <c r="E137" s="4">
-        <f>IF(D137="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>271</v>
@@ -4198,13 +4198,13 @@
         <v>220</v>
       </c>
       <c r="E138" s="4">
-        <f>IF(D138="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>273</v>
@@ -4216,13 +4216,13 @@
         <v>220</v>
       </c>
       <c r="E139" s="4">
-        <f>IF(D139="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>275</v>
@@ -4234,13 +4234,13 @@
         <v>220</v>
       </c>
       <c r="E140" s="4">
-        <f>IF(D140="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>277</v>
@@ -4252,13 +4252,13 @@
         <v>220</v>
       </c>
       <c r="E141" s="4">
-        <f>IF(D141="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>178</v>
@@ -4270,13 +4270,13 @@
         <v>220</v>
       </c>
       <c r="E142" s="4">
-        <f>IF(D142="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>280</v>
@@ -4288,13 +4288,13 @@
         <v>220</v>
       </c>
       <c r="E143" s="4">
-        <f>IF(D143="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>282</v>
@@ -4306,13 +4306,13 @@
         <v>220</v>
       </c>
       <c r="E144" s="4">
-        <f>IF(D144="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>284</v>
@@ -4324,13 +4324,13 @@
         <v>220</v>
       </c>
       <c r="E145" s="4">
-        <f>IF(D145="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>286</v>
@@ -4342,13 +4342,13 @@
         <v>220</v>
       </c>
       <c r="E146" s="4">
-        <f>IF(D146="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>288</v>
@@ -4360,13 +4360,13 @@
         <v>220</v>
       </c>
       <c r="E147" s="4">
-        <f>IF(D147="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>286</v>
@@ -4378,13 +4378,13 @@
         <v>220</v>
       </c>
       <c r="E148" s="4">
-        <f>IF(D148="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>291</v>
@@ -4396,13 +4396,13 @@
         <v>220</v>
       </c>
       <c r="E149" s="4">
-        <f>IF(D149="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>293</v>
@@ -4414,13 +4414,13 @@
         <v>220</v>
       </c>
       <c r="E150" s="4">
-        <f>IF(D150="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>295</v>
@@ -4432,13 +4432,13 @@
         <v>220</v>
       </c>
       <c r="E151" s="4">
-        <f>IF(D151="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>297</v>
@@ -4450,13 +4450,13 @@
         <v>220</v>
       </c>
       <c r="E152" s="4">
-        <f>IF(D152="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>299</v>
@@ -4468,13 +4468,13 @@
         <v>220</v>
       </c>
       <c r="E153" s="4">
-        <f>IF(D153="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>231</v>
@@ -4486,13 +4486,13 @@
         <v>220</v>
       </c>
       <c r="E154" s="4">
-        <f>IF(D154="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>302</v>
@@ -4504,13 +4504,13 @@
         <v>220</v>
       </c>
       <c r="E155" s="4">
-        <f>IF(D155="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>304</v>
@@ -4522,13 +4522,13 @@
         <v>220</v>
       </c>
       <c r="E156" s="4">
-        <f>IF(D156="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>306</v>
@@ -4540,13 +4540,13 @@
         <v>220</v>
       </c>
       <c r="E157" s="4">
-        <f>IF(D157="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>308</v>
@@ -4558,13 +4558,13 @@
         <v>220</v>
       </c>
       <c r="E158" s="4">
-        <f>IF(D158="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>310</v>
@@ -4576,13 +4576,13 @@
         <v>220</v>
       </c>
       <c r="E159" s="4">
-        <f>IF(D159="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>312</v>
@@ -4594,13 +4594,13 @@
         <v>220</v>
       </c>
       <c r="E160" s="4">
-        <f>IF(D160="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>314</v>
@@ -4612,13 +4612,13 @@
         <v>220</v>
       </c>
       <c r="E161" s="4">
-        <f>IF(D161="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>316</v>
@@ -4630,13 +4630,13 @@
         <v>220</v>
       </c>
       <c r="E162" s="4">
-        <f>IF(D162="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>318</v>
@@ -4648,13 +4648,13 @@
         <v>220</v>
       </c>
       <c r="E163" s="4">
-        <f>IF(D163="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>320</v>
@@ -4666,13 +4666,13 @@
         <v>220</v>
       </c>
       <c r="E164" s="4">
-        <f>IF(D164="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>322</v>
@@ -4684,13 +4684,13 @@
         <v>220</v>
       </c>
       <c r="E165" s="4">
-        <f>IF(D165="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>324</v>
@@ -4702,13 +4702,13 @@
         <v>220</v>
       </c>
       <c r="E166" s="4">
-        <f>IF(D166="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>231</v>
@@ -4720,13 +4720,13 @@
         <v>220</v>
       </c>
       <c r="E167" s="4">
-        <f>IF(D167="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>327</v>
@@ -4738,13 +4738,13 @@
         <v>220</v>
       </c>
       <c r="E168" s="4">
-        <f>IF(D168="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>329</v>
@@ -4756,13 +4756,13 @@
         <v>220</v>
       </c>
       <c r="E169" s="4">
-        <f>IF(D169="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>331</v>
@@ -4774,13 +4774,13 @@
         <v>220</v>
       </c>
       <c r="E170" s="4">
-        <f>IF(D170="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>333</v>
@@ -4792,13 +4792,13 @@
         <v>220</v>
       </c>
       <c r="E171" s="4">
-        <f>IF(D171="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>335</v>
@@ -4810,13 +4810,13 @@
         <v>220</v>
       </c>
       <c r="E172" s="4">
-        <f>IF(D172="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>337</v>
@@ -4828,13 +4828,13 @@
         <v>220</v>
       </c>
       <c r="E173" s="4">
-        <f>IF(D173="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>339</v>
@@ -4846,13 +4846,13 @@
         <v>220</v>
       </c>
       <c r="E174" s="4">
-        <f>IF(D174="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>341</v>
@@ -4864,13 +4864,13 @@
         <v>220</v>
       </c>
       <c r="E175" s="4">
-        <f>IF(D175="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>343</v>
@@ -4882,13 +4882,13 @@
         <v>220</v>
       </c>
       <c r="E176" s="4">
-        <f>IF(D176="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>345</v>
@@ -4900,13 +4900,13 @@
         <v>220</v>
       </c>
       <c r="E177" s="4">
-        <f>IF(D177="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>347</v>
@@ -4918,13 +4918,13 @@
         <v>220</v>
       </c>
       <c r="E178" s="4">
-        <f>IF(D178="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>349</v>
@@ -4936,13 +4936,13 @@
         <v>220</v>
       </c>
       <c r="E179" s="4">
-        <f>IF(D179="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>351</v>
@@ -4954,13 +4954,13 @@
         <v>220</v>
       </c>
       <c r="E180" s="4">
-        <f>IF(D180="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>353</v>
@@ -4972,13 +4972,13 @@
         <v>220</v>
       </c>
       <c r="E181" s="4">
-        <f>IF(D181="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>355</v>
@@ -4990,13 +4990,13 @@
         <v>220</v>
       </c>
       <c r="E182" s="4">
-        <f>IF(D182="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>357</v>
@@ -5008,13 +5008,13 @@
         <v>220</v>
       </c>
       <c r="E183" s="4">
-        <f>IF(D183="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>359</v>
@@ -5026,13 +5026,13 @@
         <v>220</v>
       </c>
       <c r="E184" s="4">
-        <f>IF(D184="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>361</v>
@@ -5044,13 +5044,13 @@
         <v>220</v>
       </c>
       <c r="E185" s="4">
-        <f>IF(D185="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>363</v>
@@ -5062,13 +5062,13 @@
         <v>220</v>
       </c>
       <c r="E186" s="4">
-        <f>IF(D186="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>365</v>
@@ -5080,13 +5080,13 @@
         <v>220</v>
       </c>
       <c r="E187" s="4">
-        <f>IF(D187="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>367</v>
@@ -5098,13 +5098,13 @@
         <v>220</v>
       </c>
       <c r="E188" s="4">
-        <f>IF(D188="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>369</v>
@@ -5116,13 +5116,13 @@
         <v>220</v>
       </c>
       <c r="E189" s="4">
-        <f>IF(D189="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>371</v>
@@ -5134,13 +5134,13 @@
         <v>220</v>
       </c>
       <c r="E190" s="4">
-        <f>IF(D190="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>373</v>
@@ -5152,13 +5152,13 @@
         <v>220</v>
       </c>
       <c r="E191" s="4">
-        <f>IF(D191="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>375</v>
@@ -5170,13 +5170,13 @@
         <v>220</v>
       </c>
       <c r="E192" s="4">
-        <f>IF(D192="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>377</v>
@@ -5188,13 +5188,13 @@
         <v>220</v>
       </c>
       <c r="E193" s="4">
-        <f>IF(D193="POSITIF",1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>345</v>
@@ -5206,13 +5206,13 @@
         <v>220</v>
       </c>
       <c r="E194" s="4">
-        <f>IF(D194="POSITIF",1,-1)</f>
+        <f t="shared" ref="E194:E257" si="3">IF(D194="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>380</v>
@@ -5224,13 +5224,13 @@
         <v>220</v>
       </c>
       <c r="E195" s="4">
-        <f>IF(D195="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>380</v>
@@ -5242,13 +5242,13 @@
         <v>220</v>
       </c>
       <c r="E196" s="4">
-        <f>IF(D196="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>383</v>
@@ -5260,13 +5260,13 @@
         <v>220</v>
       </c>
       <c r="E197" s="4">
-        <f>IF(D197="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>385</v>
@@ -5278,13 +5278,13 @@
         <v>220</v>
       </c>
       <c r="E198" s="4">
-        <f>IF(D198="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>387</v>
@@ -5296,13 +5296,13 @@
         <v>220</v>
       </c>
       <c r="E199" s="4">
-        <f>IF(D199="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>389</v>
@@ -5314,13 +5314,13 @@
         <v>220</v>
       </c>
       <c r="E200" s="4">
-        <f>IF(D200="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>391</v>
@@ -5332,13 +5332,13 @@
         <v>220</v>
       </c>
       <c r="E201" s="4">
-        <f>IF(D201="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>393</v>
@@ -5350,13 +5350,13 @@
         <v>220</v>
       </c>
       <c r="E202" s="4">
-        <f>IF(D202="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>395</v>
@@ -5368,13 +5368,13 @@
         <v>220</v>
       </c>
       <c r="E203" s="4">
-        <f>IF(D203="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>397</v>
@@ -5386,13 +5386,13 @@
         <v>220</v>
       </c>
       <c r="E204" s="4">
-        <f>IF(D204="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>399</v>
@@ -5404,13 +5404,13 @@
         <v>220</v>
       </c>
       <c r="E205" s="4">
-        <f>IF(D205="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>401</v>
@@ -5422,13 +5422,13 @@
         <v>220</v>
       </c>
       <c r="E206" s="4">
-        <f>IF(D206="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>403</v>
@@ -5440,13 +5440,13 @@
         <v>220</v>
       </c>
       <c r="E207" s="4">
-        <f>IF(D207="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>405</v>
@@ -5458,13 +5458,13 @@
         <v>220</v>
       </c>
       <c r="E208" s="4">
-        <f>IF(D208="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>407</v>
@@ -5476,13 +5476,13 @@
         <v>220</v>
       </c>
       <c r="E209" s="4">
-        <f>IF(D209="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>409</v>
@@ -5494,13 +5494,13 @@
         <v>220</v>
       </c>
       <c r="E210" s="4">
-        <f>IF(D210="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>411</v>
@@ -5512,13 +5512,13 @@
         <v>220</v>
       </c>
       <c r="E211" s="4">
-        <f>IF(D211="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>413</v>
@@ -5530,13 +5530,13 @@
         <v>220</v>
       </c>
       <c r="E212" s="4">
-        <f>IF(D212="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>415</v>
@@ -5548,13 +5548,13 @@
         <v>220</v>
       </c>
       <c r="E213" s="4">
-        <f>IF(D213="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>417</v>
@@ -5566,13 +5566,13 @@
         <v>220</v>
       </c>
       <c r="E214" s="4">
-        <f>IF(D214="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>419</v>
@@ -5584,13 +5584,13 @@
         <v>220</v>
       </c>
       <c r="E215" s="4">
-        <f>IF(D215="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>421</v>
@@ -5602,13 +5602,13 @@
         <v>220</v>
       </c>
       <c r="E216" s="4">
-        <f>IF(D216="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>423</v>
@@ -5620,7 +5620,7 @@
         <v>220</v>
       </c>
       <c r="E217" s="4">
-        <f>IF(D217="POSITIF",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
